--- a/checkExam/入库单_result.xlsx
+++ b/checkExam/入库单_result.xlsx
@@ -520,20 +520,25 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>11054</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>流通概论</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -570,20 +575,25 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 16:30:00</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
           <t>11067</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>知识产权法</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 16:30-18:00</t>
         </is>
@@ -620,20 +630,25 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
           <t>11073</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>法律文书</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 11:00-13:00</t>
         </is>
@@ -670,20 +685,25 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
           <t>11080</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>工程数学（本）</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 14:00-15:30</t>
         </is>
@@ -720,20 +740,25 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
           <t>11141</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>工程经济与管理</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 14:00-15:30</t>
         </is>
@@ -770,20 +795,25 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
           <t>11171</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>科学与技术</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="L7" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 11:00-12:30</t>
         </is>
@@ -820,20 +850,25 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
           <t>11258</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="K8" s="1" t="inlineStr">
         <is>
           <t>房屋建筑混凝土结构设计</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="L8" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="M8" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -870,20 +905,25 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
           <t>11334</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>纳税筹划</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="L9" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="M9" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -920,20 +960,25 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
           <t>11477</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="K10" s="1" t="inlineStr">
         <is>
           <t>现代汉语</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="L10" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="M10" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -970,20 +1015,25 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 16:30:00</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
           <t>11505</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="K11" s="1" t="inlineStr">
         <is>
           <t>中国现当代文学</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="L11" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="M11" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 16:30-18:00</t>
         </is>
@@ -1020,20 +1070,25 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
           <t>11511</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="K12" s="1" t="inlineStr">
         <is>
           <t>古代汉语</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="L12" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L12" s="1" t="inlineStr">
+      <c r="M12" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -1070,20 +1125,25 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
           <t>11568</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="K13" s="1" t="inlineStr">
         <is>
           <t>习近平法治思想概论</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="L13" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="M13" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 11:00-12:30</t>
         </is>
@@ -1120,20 +1180,25 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
           <t>11575</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="K14" s="1" t="inlineStr">
         <is>
           <t>经济法</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="L14" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="M14" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -1170,20 +1235,25 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
           <t>11620</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="K15" s="1" t="inlineStr">
         <is>
           <t>会计实务专题</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="L15" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="M15" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-18:00</t>
         </is>
@@ -1220,20 +1290,25 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
           <t>11646</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="K16" s="1" t="inlineStr">
         <is>
           <t>法律职业伦理</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="L16" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="M16" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 14:00-15:30</t>
         </is>
@@ -1270,20 +1345,25 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
           <t>22006</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="K17" s="1" t="inlineStr">
         <is>
           <t>经济数学基础12</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="L17" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="M17" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -1320,20 +1400,25 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 16:30:00</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
           <t>22019</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="K18" s="1" t="inlineStr">
         <is>
           <t>统计学原理</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="L18" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr">
+      <c r="M18" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 16:30-18:00</t>
         </is>
@@ -1370,20 +1455,25 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
           <t>22072</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="K19" s="1" t="inlineStr">
         <is>
           <t>人文社会科学基础（A）</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="L19" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="L19" s="1" t="inlineStr">
+      <c r="M19" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-17:30</t>
         </is>
@@ -1420,20 +1510,25 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
           <t>22094</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="K20" s="1" t="inlineStr">
         <is>
           <t>法理学</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="L20" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L20" s="1" t="inlineStr">
+      <c r="M20" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 14:00-15:30</t>
         </is>
@@ -1470,20 +1565,25 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
           <t>22096</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="K21" s="1" t="inlineStr">
         <is>
           <t>经济法学</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="L21" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L21" s="1" t="inlineStr">
+      <c r="M21" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-18:00</t>
         </is>
@@ -1520,20 +1620,25 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
           <t>22097</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="K22" s="1" t="inlineStr">
         <is>
           <t>民法学（1）</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="L22" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="M22" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -1570,20 +1675,25 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 16:30:00</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
           <t>22098</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="K23" s="1" t="inlineStr">
         <is>
           <t>民法学（2）</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="L23" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="M23" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 16:30-18:00</t>
         </is>
@@ -1620,20 +1730,25 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
           <t>22099</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="K24" s="1" t="inlineStr">
         <is>
           <t>民事诉讼法学</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="L24" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="M24" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 14:00-15:30</t>
         </is>
@@ -1670,20 +1785,25 @@
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J25" s="1" t="inlineStr">
+        <is>
           <t>22107</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="K25" s="1" t="inlineStr">
         <is>
           <t>刑法学（1）</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="L25" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L25" s="1" t="inlineStr">
+      <c r="M25" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-18:00</t>
         </is>
@@ -1720,20 +1840,25 @@
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
           <t>22108</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="K26" s="1" t="inlineStr">
         <is>
           <t>刑法学（2）</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="L26" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L26" s="1" t="inlineStr">
+      <c r="M26" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 14:00-15:30</t>
         </is>
@@ -1770,20 +1895,25 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
           <t>22109</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="K27" s="1" t="inlineStr">
         <is>
           <t>刑事诉讼法学</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="L27" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="M27" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 11:00-12:30</t>
         </is>
@@ -1820,20 +1950,25 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
           <t>22110</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="K28" s="1" t="inlineStr">
         <is>
           <t>行政法与行政诉讼法</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="L28" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="M28" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -1870,20 +2005,25 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J29" s="1" t="inlineStr">
+        <is>
           <t>22175</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="K29" s="1" t="inlineStr">
         <is>
           <t>市场营销学</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="L29" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L29" s="1" t="inlineStr">
+      <c r="M29" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -1920,20 +2060,25 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J30" s="1" t="inlineStr">
+        <is>
           <t>22180</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="K30" s="1" t="inlineStr">
         <is>
           <t>办公室管理</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="L30" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="L30" s="1" t="inlineStr">
+      <c r="M30" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -1970,20 +2115,25 @@
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 08:30:00</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
           <t>22194</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="K31" s="1" t="inlineStr">
         <is>
           <t>企业信息管理</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="L31" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L31" s="1" t="inlineStr">
+      <c r="M31" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 08:30-10:00</t>
         </is>
@@ -2020,20 +2170,25 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
           <t>22202</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="K32" s="1" t="inlineStr">
         <is>
           <t>公共行政学</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="L32" s="1" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="L32" s="1" t="inlineStr">
+      <c r="M32" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -2070,20 +2225,25 @@
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
           <t>22208</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="K33" s="1" t="inlineStr">
         <is>
           <t>政治学原理</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="L33" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="M33" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 11:00-12:30</t>
         </is>
@@ -2120,20 +2280,25 @@
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
           <t>22223</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="K34" s="1" t="inlineStr">
         <is>
           <t>物业管理财税基础</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="L34" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L34" s="1" t="inlineStr">
+      <c r="M34" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-18:00</t>
         </is>
@@ -2170,20 +2335,25 @@
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
           <t>22238</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="K35" s="1" t="inlineStr">
         <is>
           <t>个案工作</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="L35" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L35" s="1" t="inlineStr">
+      <c r="M35" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 14:00-15:30</t>
         </is>
@@ -2220,20 +2390,25 @@
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
           <t>22246</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="K36" s="1" t="inlineStr">
         <is>
           <t>社会工作概论</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="L36" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L36" s="1" t="inlineStr">
+      <c r="M36" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-18:00</t>
         </is>
@@ -2270,20 +2445,25 @@
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 16:30:00</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
           <t>22247</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="K37" s="1" t="inlineStr">
         <is>
           <t>社会工作政策法规</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="L37" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L37" s="1" t="inlineStr">
+      <c r="M37" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 16:30-18:00</t>
         </is>
@@ -2320,20 +2500,25 @@
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
           <t>22251</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="K38" s="1" t="inlineStr">
         <is>
           <t>团体工作</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="L38" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr">
+      <c r="M38" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -2370,20 +2555,25 @@
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
           <t>22320</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="K39" s="1" t="inlineStr">
         <is>
           <t>物流管理定量分析方法</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="L39" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L39" s="1" t="inlineStr">
+      <c r="M39" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-18:00</t>
         </is>
@@ -2420,20 +2610,25 @@
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
           <t>22332</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="K40" s="1" t="inlineStr">
         <is>
           <t>高等数学基础</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="L40" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr">
+      <c r="M40" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 14:00-15:30</t>
         </is>
@@ -2470,20 +2665,25 @@
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
           <t>22402</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="K41" s="1" t="inlineStr">
         <is>
           <t>外国文学</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="L41" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="M41" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 14:00-15:30</t>
         </is>
@@ -2520,20 +2720,25 @@
       </c>
       <c r="I42" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
           <t>22409</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="K42" s="1" t="inlineStr">
         <is>
           <t>中国古代文学（上）</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="L42" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L42" s="1" t="inlineStr">
+      <c r="M42" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 14:00-15:30</t>
         </is>
@@ -2570,20 +2775,25 @@
       </c>
       <c r="I43" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
           <t>22412</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="K43" s="1" t="inlineStr">
         <is>
           <t>基础写作</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="L43" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L43" s="1" t="inlineStr">
+      <c r="M43" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 14:00-15:30</t>
         </is>
@@ -2620,20 +2830,25 @@
       </c>
       <c r="I44" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
           <t>22508</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="K44" s="1" t="inlineStr">
         <is>
           <t>学前儿童语言教育活动指导</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="L44" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="L44" s="1" t="inlineStr">
+      <c r="M44" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 11:00-12:00</t>
         </is>
@@ -2670,20 +2885,25 @@
       </c>
       <c r="I45" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
           <t>22517</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="K45" s="1" t="inlineStr">
         <is>
           <t>社区工作</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="L45" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L45" s="1" t="inlineStr">
+      <c r="M45" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -2720,20 +2940,25 @@
       </c>
       <c r="I46" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 16:30:00</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
           <t>22528</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="K46" s="1" t="inlineStr">
         <is>
           <t>监督学</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="L46" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="L46" s="1" t="inlineStr">
+      <c r="M46" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 16:30-18:00</t>
         </is>
@@ -2770,20 +2995,25 @@
       </c>
       <c r="I47" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 08:30:00</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
           <t>22542</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="K47" s="1" t="inlineStr">
         <is>
           <t>行政组织学</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="L47" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="L47" s="1" t="inlineStr">
+      <c r="M47" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 08:30-10:00</t>
         </is>
@@ -2820,20 +3050,25 @@
       </c>
       <c r="I48" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 08:30:00</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
           <t>22617</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="K48" s="1" t="inlineStr">
         <is>
           <t>生产与运作管理</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="L48" s="1" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="L48" s="1" t="inlineStr">
+      <c r="M48" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 08:30-10:00</t>
         </is>
@@ -2870,20 +3105,25 @@
       </c>
       <c r="I49" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
           <t>22666</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="K49" s="1" t="inlineStr">
         <is>
           <t>工作分析实务</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="L49" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L49" s="1" t="inlineStr">
+      <c r="M49" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -2920,20 +3160,25 @@
       </c>
       <c r="I50" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="inlineStr">
+        <is>
           <t>22668</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="K50" s="1" t="inlineStr">
         <is>
           <t>人员招聘与培训实务</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="L50" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L50" s="1" t="inlineStr">
+      <c r="M50" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-18:00</t>
         </is>
@@ -2970,20 +3215,25 @@
       </c>
       <c r="I51" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
           <t>22691</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="K51" s="1" t="inlineStr">
         <is>
           <t>劳动关系与社会保障实务</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="L51" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L51" s="1" t="inlineStr">
+      <c r="M51" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -3020,20 +3270,25 @@
       </c>
       <c r="I52" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 08:30:00</t>
+        </is>
+      </c>
+      <c r="J52" s="1" t="inlineStr">
+        <is>
           <t>23617</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="K52" s="1" t="inlineStr">
         <is>
           <t>劳动与社会保障法</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="L52" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L52" s="1" t="inlineStr">
+      <c r="M52" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 08:30-10:00</t>
         </is>
@@ -3070,20 +3325,25 @@
       </c>
       <c r="I53" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="inlineStr">
+        <is>
           <t>23722</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="K53" s="1" t="inlineStr">
         <is>
           <t>燃气输配工程</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="L53" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L53" s="1" t="inlineStr">
+      <c r="M53" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 11:00-12:30</t>
         </is>
@@ -3120,20 +3380,25 @@
       </c>
       <c r="I54" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 08:30:00</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="inlineStr">
+        <is>
           <t>23780</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="K54" s="1" t="inlineStr">
         <is>
           <t>燃气设备操作与维护</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="L54" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L54" s="1" t="inlineStr">
+      <c r="M54" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 08:30-10:00</t>
         </is>
@@ -3170,20 +3435,25 @@
       </c>
       <c r="I55" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 16:30:00</t>
+        </is>
+      </c>
+      <c r="J55" s="1" t="inlineStr">
+        <is>
           <t>23980</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="K55" s="1" t="inlineStr">
         <is>
           <t>管理心理学</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="L55" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L55" s="1" t="inlineStr">
+      <c r="M55" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 16:30-18:00</t>
         </is>
@@ -3220,20 +3490,25 @@
       </c>
       <c r="I56" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J56" s="1" t="inlineStr">
+        <is>
           <t>23990</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="K56" s="1" t="inlineStr">
         <is>
           <t>产品管理</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="L56" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L56" s="1" t="inlineStr">
+      <c r="M56" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -3270,20 +3545,25 @@
       </c>
       <c r="I57" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J57" s="1" t="inlineStr">
+        <is>
           <t>24046</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="K57" s="1" t="inlineStr">
         <is>
           <t>数据库运维</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="L57" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L57" s="1" t="inlineStr">
+      <c r="M57" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-17:30</t>
         </is>
@@ -3320,20 +3600,25 @@
       </c>
       <c r="I58" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J58" s="1" t="inlineStr">
+        <is>
           <t>24107</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="K58" s="1" t="inlineStr">
         <is>
           <t>创业基础</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="L58" s="1" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="L58" s="1" t="inlineStr">
+      <c r="M58" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -3370,20 +3655,25 @@
       </c>
       <c r="I59" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 08:30:00</t>
+        </is>
+      </c>
+      <c r="J59" s="1" t="inlineStr">
+        <is>
           <t>24108</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="K59" s="1" t="inlineStr">
         <is>
           <t>EXCEL在财务中的应用</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="L59" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="L59" s="1" t="inlineStr">
+      <c r="M59" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 08:30-10:00</t>
         </is>
@@ -3420,20 +3710,25 @@
       </c>
       <c r="I60" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="inlineStr">
+        <is>
           <t>24149</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="K60" s="1" t="inlineStr">
         <is>
           <t>中国古代文化常识</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="L60" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L60" s="1" t="inlineStr">
+      <c r="M60" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 14:00-15:30</t>
         </is>
@@ -3470,20 +3765,25 @@
       </c>
       <c r="I61" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="J61" s="1" t="inlineStr">
+        <is>
           <t>24153</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="K61" s="1" t="inlineStr">
         <is>
           <t>学前卫生学基础</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="L61" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L61" s="1" t="inlineStr">
+      <c r="M61" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 16:30-17:30</t>
         </is>
@@ -3520,20 +3820,25 @@
       </c>
       <c r="I62" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
+        <is>
           <t>24154</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="K62" s="1" t="inlineStr">
         <is>
           <t>大数据技术概论</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="L62" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="L62" s="1" t="inlineStr">
+      <c r="M62" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:00</t>
         </is>
@@ -3570,20 +3875,25 @@
       </c>
       <c r="I63" s="1" t="inlineStr">
         <is>
+          <t>2024-01-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="J63" s="1" t="inlineStr">
+        <is>
           <t>24176</t>
         </is>
       </c>
-      <c r="J63" s="1" t="inlineStr">
+      <c r="K63" s="1" t="inlineStr">
         <is>
           <t>法律咨询与调解</t>
         </is>
       </c>
-      <c r="K63" s="1" t="inlineStr">
+      <c r="L63" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L63" s="1" t="inlineStr">
+      <c r="M63" s="1" t="inlineStr">
         <is>
           <t>2024年01月14日 11:00-12:30</t>
         </is>
@@ -3620,20 +3930,25 @@
       </c>
       <c r="I64" s="1" t="inlineStr">
         <is>
+          <t>2024-01-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="J64" s="1" t="inlineStr">
+        <is>
           <t>24186</t>
         </is>
       </c>
-      <c r="J64" s="1" t="inlineStr">
+      <c r="K64" s="1" t="inlineStr">
         <is>
           <t>企业法务</t>
         </is>
       </c>
-      <c r="K64" s="1" t="inlineStr">
+      <c r="L64" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="L64" s="1" t="inlineStr">
+      <c r="M64" s="1" t="inlineStr">
         <is>
           <t>2024年01月13日 14:00-15:30</t>
         </is>
